--- a/medicine/Pharmacie/Johannes_Burchart_IX/Johannes_Burchart_IX.xlsx
+++ b/medicine/Pharmacie/Johannes_Burchart_IX/Johannes_Burchart_IX.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johannes Burchart IX (von Bélavary de Sycava), né à Tallinn en 1808 et mort à Munich en 1869 et un docteur et le pharmacien-propriétaire de la  Raeapteek de Tallinn.
 Fils de Johannes Burchart VIII, Burchart IX retourne à Tallinn en 1842 après avoir occupé le poste de pharmacien de l'Université de Tartu. En raison d'une santé fragile il délègue ses tâches à Piers Rudolph Lehbert (1820–1888) à qui il loue la pharmacie. C'est le début du déclin de la Raeapteek.
@@ -513,10 +525,12 @@
           <t>Source, lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Gustavson. H., Tallinna vanadest apteekidest. Tallinn 1972 sur raeapteek.ee
-Caveau "famille von Scycava", Ancien cimetière du Sud, Munich [1]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gustavson. H., Tallinna vanadest apteekidest. Tallinn 1972 sur raeapteek.ee
+Caveau "famille von Scycava", Ancien cimetière du Sud, Munich </t>
         </is>
       </c>
     </row>
